--- a/regions/12/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/12/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,13 +88,13 @@
     <t>პირდაპირი უცხოური ინვესტიციები შიდა ქართლის რეგიონში</t>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
@@ -111,15 +115,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -207,6 +202,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,62 +245,61 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -608,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -619,508 +620,495 @@
     <col min="1" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="F3" s="18" t="s">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2009</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>-1642.5733742999998</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>75.3799451</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>1880.8890784000002</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>470.20456560000002</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>783.90021480000041</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2010</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>22553.542426500004</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>-492.13525970000012</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>829.92888540000001</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>-13240.93216</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>9650.4038922000036</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>2011</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>9709.7702286000003</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>682.35094700000013</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>-1341.8060390000001</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>5136.6667000000016</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>14186.981836600002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>2012</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>16698.042477200004</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>138.64479979999996</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>-2091.2482</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>-2255.1524229999968</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>12490.286654000007</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>2013</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>5679.4701000000023</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>-3271.7078999999999</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>-1109.3420999999998</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>-1413.8321999999989</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>-115.41210000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>2014</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>9406.5490999999965</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>7579.8094999999994</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>4474.5774000000001</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>36115.234299999996</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <v>57576.170300000013</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>2015</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>-5968.6422999999995</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>4176.3197999999984</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>6300.9576999999999</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>-12964.312199999993</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="14">
         <v>-8455.676999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>2016</v>
       </c>
-      <c r="B12" s="16">
-        <v>-2921.469000000001</v>
-      </c>
-      <c r="C12" s="16">
-        <v>2655.0040000000004</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2027.7393000000002</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2780.8022999999994</v>
-      </c>
-      <c r="F12" s="17">
-        <v>4542.0765999999985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="B12" s="13">
+        <v>-2921.4691000000003</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2655.0039999999999</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2027.7393</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2780.8024</v>
+      </c>
+      <c r="F12" s="14">
+        <v>4542.0765999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>2017</v>
       </c>
-      <c r="B13" s="16">
-        <v>1611.7670999999993</v>
-      </c>
-      <c r="C13" s="16">
-        <v>2221.8572999999992</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2186.2984999999994</v>
-      </c>
-      <c r="E13" s="16">
-        <v>-4921.8894000000091</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1098.0334999999886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="B13" s="13">
+        <v>1611.7671000000005</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2221.8573999999999</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2186.2983999999997</v>
+      </c>
+      <c r="E13" s="13">
+        <v>-4921.8894000000028</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1098.0334999999968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>2018</v>
       </c>
-      <c r="B14" s="16">
-        <v>-2949.7742000000003</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="13">
+        <v>-2949.7740000000013</v>
+      </c>
+      <c r="C14" s="13">
         <v>5003.569300000001</v>
       </c>
-      <c r="D14" s="16">
-        <v>9574.1992000000009</v>
-      </c>
-      <c r="E14" s="16">
-        <v>3611.9636999999993</v>
-      </c>
-      <c r="F14" s="17">
-        <v>15239.958000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="D14" s="13">
+        <v>9574.1990000000005</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3611.9636999999989</v>
+      </c>
+      <c r="F14" s="14">
+        <v>15239.957999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>2019</v>
       </c>
-      <c r="B15" s="16">
-        <v>5581.1573999999973</v>
-      </c>
-      <c r="C15" s="16">
-        <v>7020.3371000000006</v>
-      </c>
-      <c r="D15" s="16">
-        <v>5342.8001000000004</v>
-      </c>
-      <c r="E15" s="16">
-        <v>-16701.283000000003</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1243.0115999999944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="B15" s="13">
+        <v>5581.1572999999989</v>
+      </c>
+      <c r="C15" s="13">
+        <v>7020.3368999999993</v>
+      </c>
+      <c r="D15" s="13">
+        <v>5342.7998999999991</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-16701.283200000002</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1243.0108999999939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>2020</v>
       </c>
-      <c r="B16" s="16">
-        <v>463.48360000000008</v>
-      </c>
-      <c r="C16" s="16">
-        <v>4564.7201999999988</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B16" s="13">
+        <v>463.48350000000005</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4564.7200999999986</v>
+      </c>
+      <c r="D16" s="13">
         <v>8741.9070000000029</v>
       </c>
-      <c r="E16" s="16">
-        <v>4976.2332999999999</v>
-      </c>
-      <c r="F16" s="17">
-        <v>18746.344100000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="E16" s="13">
+        <v>4976.233299999999</v>
+      </c>
+      <c r="F16" s="14">
+        <v>18746.3439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>2021</v>
       </c>
-      <c r="B17" s="16">
-        <v>-308.13290000000006</v>
-      </c>
-      <c r="C17" s="16">
-        <v>7667.6233999999977</v>
-      </c>
-      <c r="D17" s="16">
-        <v>10541.606199999997</v>
-      </c>
-      <c r="E17" s="16">
-        <v>1738.2291999999998</v>
-      </c>
-      <c r="F17" s="17">
-        <v>19639.325899999996</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B17" s="13">
+        <v>-308.13289999999967</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7667.6233999999995</v>
+      </c>
+      <c r="D17" s="13">
+        <v>10541.606399999999</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1877.6471000000006</v>
+      </c>
+      <c r="F17" s="14">
+        <v>19778.743999999999</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="13">
+        <v>154.94840000000036</v>
+      </c>
+      <c r="C18" s="13">
+        <v>8685.6580999999969</v>
+      </c>
+      <c r="D18" s="13">
+        <v>12343.168600000003</v>
+      </c>
+      <c r="E18" s="13">
+        <v>14289.233999999995</v>
+      </c>
+      <c r="F18" s="14">
+        <v>35473.009099999996</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1607.1282000000006</v>
+      </c>
+      <c r="C19" s="13">
+        <v>14988.326600000004</v>
+      </c>
+      <c r="D19" s="13">
+        <v>8793.3625000000047</v>
+      </c>
+      <c r="E19" s="13">
+        <v>10187.749099999999</v>
+      </c>
+      <c r="F19" s="14">
+        <v>35576.566400000011</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16">
-        <v>588.99710000000039</v>
-      </c>
-      <c r="C18" s="16">
-        <v>9295.5676999999941</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17">
-        <v>9884.5647999999946</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="B20" s="13">
+        <v>6185.5002999999979</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14">
+        <v>6185.5002999999979</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A29:K29"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/regions/12/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
+++ b/regions/12/pirdapiri uckhouri investiciebi/pirdapiri uckhouri investiciebi.xlsx
@@ -289,17 +289,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -612,7 +612,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,14 +621,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -640,19 +640,19 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="10"/>
@@ -967,11 +967,13 @@
       <c r="B20" s="13">
         <v>6185.5002999999979</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>5434.8466999999955</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14">
-        <v>6185.5002999999979</v>
+        <v>11620.346999999994</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -1092,19 +1094,19 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
